--- a/simulator/NN_correlation_matrix/Results/Saved Models/Outputs/Sample0/Positive/reaction15.xlsx
+++ b/simulator/NN_correlation_matrix/Results/Saved Models/Outputs/Sample0/Positive/reaction15.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,58 +356,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K1" t="n">
-        <v>11</v>
-      </c>
-      <c r="L1" t="n">
-        <v>12</v>
-      </c>
-      <c r="M1" t="n">
-        <v>13</v>
-      </c>
-      <c r="N1" t="n">
-        <v>14</v>
-      </c>
-      <c r="O1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P1" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
